--- a/Output/output.xlsx
+++ b/Output/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Options</t>
   </si>
@@ -21,12 +21,18 @@
     <t>Prices</t>
   </si>
   <si>
+    <t>ww</t>
+  </si>
+  <si>
     <t>Option1</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
+    <t>www</t>
+  </si>
+  <si>
     <t>Option2</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
   </si>
   <si>
     <t>we</t>
-  </si>
-  <si>
-    <t>www</t>
   </si>
   <si>
     <t>1</t>
@@ -141,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -154,69 +157,75 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -234,44 +243,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Output/output.xlsx
+++ b/Output/output.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Options</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>we</t>
+  </si>
+  <si>
+    <t>ughg</t>
   </si>
   <si>
     <t>1</t>
@@ -235,7 +238,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -254,33 +257,42 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
